--- a/data_year/zb/运输和邮电/互联网主要指标发展情况.xlsx
+++ b/data_year/zb/运输和邮电/互联网主要指标发展情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,810 +503,552 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>27763.6864</v>
+      </c>
       <c r="C2" t="n">
-        <v>2250</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>45730</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1098956.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12629.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18781.1</v>
+      </c>
       <c r="G2" t="n">
-        <v>900.5</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>590.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2475.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9963.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>865.6</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>190.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6000806</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33043.9936</v>
+      </c>
       <c r="C3" t="n">
-        <v>3370</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>51310</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1389529</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15000.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23239.4</v>
+      </c>
       <c r="G3" t="n">
-        <v>3652.7</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>550.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3308.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11691.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>774.8459</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>229.5562</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8658229.839299999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>33053.4912</v>
+      </c>
       <c r="C4" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>56400</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1899792</v>
+      </c>
       <c r="E4" t="n">
-        <v>325.3</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>17518.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32108.4495</v>
+      </c>
       <c r="G4" t="n">
-        <v>5246.5</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>569.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4075.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13442.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1341.2079</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>268.0702</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12274681.7252</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>33030.8096</v>
+      </c>
       <c r="C5" t="n">
-        <v>7950</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>61758</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3406824</v>
+      </c>
       <c r="E5" t="n">
-        <v>1115.1</v>
+        <v>18890.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1802.3</v>
+        <v>35945.3</v>
       </c>
       <c r="G5" t="n">
-        <v>5653.1</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>485.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4737.2661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14153.6093</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1843.6461</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>320.1625</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15004076.2685</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>33198.8224</v>
+      </c>
       <c r="C6" t="n">
-        <v>9400</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>64875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4118663</v>
+      </c>
       <c r="E6" t="n">
-        <v>2487.5</v>
+        <v>20048.34</v>
       </c>
       <c r="F6" t="n">
-        <v>3578.1</v>
+        <v>40546.13</v>
       </c>
       <c r="G6" t="n">
-        <v>5122.3</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>441.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4873.71</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15174.63</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2059.5503</v>
+      </c>
+      <c r="K6" t="n">
+        <v>206193.55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>87522.13</v>
+      </c>
       <c r="M6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>334.8926</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18991864.9085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7439.1</v>
+        <v>33651.968</v>
       </c>
       <c r="C7" t="n">
-        <v>11100</v>
+        <v>68826</v>
       </c>
       <c r="D7" t="n">
-        <v>136106.044538706</v>
+        <v>5392116</v>
       </c>
       <c r="E7" t="n">
-        <v>3735</v>
+        <v>25946.57</v>
       </c>
       <c r="F7" t="n">
-        <v>4874.7</v>
+        <v>57709.38</v>
       </c>
       <c r="G7" t="n">
-        <v>3559.5</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>331.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6398.37</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19547.16</v>
+      </c>
       <c r="J7" t="n">
-        <v>259.241</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>3101.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>418753.31</v>
+      </c>
+      <c r="L7" t="n">
+        <v>96447.16</v>
+      </c>
       <c r="M7" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>422.9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21229622.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9801.6</v>
+        <v>33810.2784</v>
       </c>
       <c r="C8" t="n">
-        <v>13700</v>
+        <v>73125</v>
       </c>
       <c r="D8" t="n">
-        <v>256696</v>
+        <v>6640291</v>
       </c>
       <c r="E8" t="n">
-        <v>5085.3117</v>
+        <v>29720.65</v>
       </c>
       <c r="F8" t="n">
-        <v>6486.4</v>
+        <v>71276.8602</v>
       </c>
       <c r="G8" t="n">
-        <v>2644.6454</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>306.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7454.03</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22266.62</v>
+      </c>
       <c r="J8" t="n">
-        <v>410.9</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>4227.5702</v>
+      </c>
+      <c r="K8" t="n">
+        <v>937863.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>109395.02</v>
+      </c>
       <c r="M8" t="n">
-        <v>84.3</v>
+        <v>482.3918</v>
       </c>
       <c r="N8" t="n">
-        <v>447257.8</v>
+        <v>23599758.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13527.5</v>
+        <v>33870.464</v>
       </c>
       <c r="C9" t="n">
-        <v>21000</v>
+        <v>77198</v>
       </c>
       <c r="D9" t="n">
-        <v>368927</v>
+        <v>7320180</v>
       </c>
       <c r="E9" t="n">
-        <v>6641.4</v>
+        <v>34854.0089</v>
       </c>
       <c r="F9" t="n">
-        <v>8539.299999999999</v>
+        <v>77599.0947</v>
       </c>
       <c r="G9" t="n">
-        <v>1941</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>301.7166</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9377.2961</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25476.7128</v>
+      </c>
       <c r="J9" t="n">
-        <v>1193.1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>3848.0355</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2459380.26</v>
+      </c>
+      <c r="L9" t="n">
+        <v>127153.7371</v>
+      </c>
       <c r="M9" t="n">
-        <v>150.4</v>
+        <v>533.2978000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>847108.5</v>
+        <v>26039903.0208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18127.3</v>
+        <v>33892.4544</v>
       </c>
       <c r="C10" t="n">
-        <v>29800</v>
+        <v>82851.26390000001</v>
       </c>
       <c r="D10" t="n">
-        <v>640287</v>
+        <v>8946570</v>
       </c>
       <c r="E10" t="n">
-        <v>8287.9</v>
+        <v>40738.15</v>
       </c>
       <c r="F10" t="n">
-        <v>10890.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1227.8</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>86752.3</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>11741.67</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28996.48</v>
+      </c>
       <c r="J10" t="n">
-        <v>1682.6</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>3792.7527</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7090039.28</v>
+      </c>
+      <c r="L10" t="n">
+        <v>127481.54</v>
+      </c>
       <c r="M10" t="n">
-        <v>287.8</v>
+        <v>523.3623</v>
       </c>
       <c r="N10" t="n">
-        <v>1608637</v>
+        <v>28162240.6489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23244.6</v>
+        <v>33909.2992</v>
       </c>
       <c r="C11" t="n">
-        <v>38400</v>
+        <v>90359.1691</v>
       </c>
       <c r="D11" t="n">
-        <v>866367.2</v>
+        <v>8827751</v>
       </c>
       <c r="E11" t="n">
-        <v>10397.8</v>
+        <v>44927.8574</v>
       </c>
       <c r="F11" t="n">
-        <v>13835.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>754.4</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>91577.984</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>13477.3258</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31450.5316</v>
+      </c>
       <c r="J11" t="n">
-        <v>1681.8</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>323.2</v>
-      </c>
+        <v>5094.2295</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12199200.640323</v>
+      </c>
+      <c r="L11" t="n">
+        <v>131852.5842</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>3360173.2</v>
+        <v>29782991.4511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27763.6864</v>
+        <v>34066.8416</v>
       </c>
       <c r="C12" t="n">
-        <v>45730</v>
+        <v>98898.9961</v>
       </c>
       <c r="D12" t="n">
-        <v>1098956.82</v>
+        <v>11511397</v>
       </c>
       <c r="E12" t="n">
-        <v>12629.1</v>
+        <v>48354.95</v>
       </c>
       <c r="F12" t="n">
-        <v>18781.1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>590.1</v>
-      </c>
+        <v>94604.67999999999</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>2475.7</v>
+        <v>14189.65</v>
       </c>
       <c r="I12" t="n">
-        <v>9963.5</v>
+        <v>34165.3</v>
       </c>
       <c r="J12" t="n">
-        <v>865.6</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>190.8</v>
-      </c>
+        <v>4197.7611</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16556817.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>134851.92</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>6000806</v>
+        <v>31550109.7812</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33043.9936</v>
+        <v>34388.0704</v>
       </c>
       <c r="C13" t="n">
-        <v>51310</v>
+        <v>103195</v>
       </c>
       <c r="D13" t="n">
-        <v>1389529</v>
+        <v>13839969</v>
       </c>
       <c r="E13" t="n">
-        <v>15000.1</v>
+        <v>53578.66</v>
       </c>
       <c r="F13" t="n">
-        <v>23239.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>550.7</v>
-      </c>
+        <v>101784.68</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>3308.8</v>
+        <v>15770.48</v>
       </c>
       <c r="I13" t="n">
-        <v>11691.4</v>
+        <v>37808.18</v>
       </c>
       <c r="J13" t="n">
-        <v>774.8459</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>229.5562</v>
-      </c>
+        <v>3593.1063</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22163224.26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>141564.9</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>8658229.839299999</v>
+        <v>33496371.2602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>33053.4912</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>56400</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1899792</v>
-      </c>
+        <v>106744</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>17518.3</v>
+        <v>58965</v>
       </c>
       <c r="F14" t="n">
-        <v>32108.4495</v>
-      </c>
-      <c r="G14" t="n">
-        <v>569.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4075.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13442.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1341.2079</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>107104.18</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>26180000</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>268.0702</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12274681.7252</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>33030.8096</v>
-      </c>
-      <c r="C15" t="n">
-        <v>61758</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3406824</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18890.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35945.3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>485.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4737.2661</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14153.6093</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1843.6461</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>320.1625</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15004076.2685</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>33198.8224</v>
-      </c>
-      <c r="C16" t="n">
-        <v>64875</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4118663</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20048.34</v>
-      </c>
-      <c r="F16" t="n">
-        <v>40546.13</v>
-      </c>
-      <c r="G16" t="n">
-        <v>441.64</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4873.71</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15174.63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2059.5503</v>
-      </c>
-      <c r="K16" t="n">
-        <v>206193.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>87522.13</v>
-      </c>
-      <c r="M16" t="n">
-        <v>334.8926</v>
-      </c>
-      <c r="N16" t="n">
-        <v>18991864.9085</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>33651.968</v>
-      </c>
-      <c r="C17" t="n">
-        <v>68826</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5392116</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25946.57</v>
-      </c>
-      <c r="F17" t="n">
-        <v>57709.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>331.62</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6398.37</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19547.16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3101.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>418753.31</v>
-      </c>
-      <c r="L17" t="n">
-        <v>96447.16</v>
-      </c>
-      <c r="M17" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>21229622.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>33810.2784</v>
-      </c>
-      <c r="C18" t="n">
-        <v>73125</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6640291</v>
-      </c>
-      <c r="E18" t="n">
-        <v>29720.65</v>
-      </c>
-      <c r="F18" t="n">
-        <v>71276.8602</v>
-      </c>
-      <c r="G18" t="n">
-        <v>306.33</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7454.03</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22266.62</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4227.5702</v>
-      </c>
-      <c r="K18" t="n">
-        <v>937863.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>109395.02</v>
-      </c>
-      <c r="M18" t="n">
-        <v>482.3918</v>
-      </c>
-      <c r="N18" t="n">
-        <v>23599758.4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>33870.464</v>
-      </c>
-      <c r="C19" t="n">
-        <v>77198</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7320180</v>
-      </c>
-      <c r="E19" t="n">
-        <v>34854.0089</v>
-      </c>
-      <c r="F19" t="n">
-        <v>77599.0947</v>
-      </c>
-      <c r="G19" t="n">
-        <v>301.7166</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9377.2961</v>
-      </c>
-      <c r="I19" t="n">
-        <v>25476.7128</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3848.0355</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2459380.26</v>
-      </c>
-      <c r="L19" t="n">
-        <v>127153.7371</v>
-      </c>
-      <c r="M19" t="n">
-        <v>533.2978000000001</v>
-      </c>
-      <c r="N19" t="n">
-        <v>26039903.0208</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>33892.4544</v>
-      </c>
-      <c r="C20" t="n">
-        <v>82851.26390000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8946570</v>
-      </c>
-      <c r="E20" t="n">
-        <v>40738.15</v>
-      </c>
-      <c r="F20" t="n">
-        <v>86752.3</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>11741.67</v>
-      </c>
-      <c r="I20" t="n">
-        <v>28996.48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3792.7527</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7090039.28</v>
-      </c>
-      <c r="L20" t="n">
-        <v>127481.54</v>
-      </c>
-      <c r="M20" t="n">
-        <v>523.3623</v>
-      </c>
-      <c r="N20" t="n">
-        <v>28162240.6489</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>33909.2992</v>
-      </c>
-      <c r="C21" t="n">
-        <v>90359.1691</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8827751</v>
-      </c>
-      <c r="E21" t="n">
-        <v>44927.8574</v>
-      </c>
-      <c r="F21" t="n">
-        <v>91577.984</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>13477.3258</v>
-      </c>
-      <c r="I21" t="n">
-        <v>31450.5316</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5094.2295</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12199200.640323</v>
-      </c>
-      <c r="L21" t="n">
-        <v>131852.5842</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>29782991.4511</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>34066.8416</v>
-      </c>
-      <c r="C22" t="n">
-        <v>98898.9961</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11511397</v>
-      </c>
-      <c r="E22" t="n">
-        <v>48354.95</v>
-      </c>
-      <c r="F22" t="n">
-        <v>94604.67999999999</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>14189.65</v>
-      </c>
-      <c r="I22" t="n">
-        <v>34165.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4197.7611</v>
-      </c>
-      <c r="K22" t="n">
-        <v>16556817.24</v>
-      </c>
-      <c r="L22" t="n">
-        <v>134851.92</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>31550109.7812</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
